--- a/documents/bikedata_mockup.xlsx
+++ b/documents/bikedata_mockup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChuongTrinhDaiHoc\Data Warehouse\tong_hop_tai_lieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChuongTrinhDaiHoc\Data Warehouse\datawarehouse_staging\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8C46F1-145E-4CF6-9168-781AAA50485E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AAFB5D-11DF-4442-B859-76E40D3A85D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>python 3.12.6</t>
   </si>
   <si>
-    <t>D:\ChuongTrinhDaiHoc\Data Warehouse\datawarehouse_staging\get_data_from_web</t>
+    <t>D:\get_data_from_web</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
